--- a/K odevzdání/4. iterace/Testování/Testovací scénář - správa účtů.xlsx
+++ b/K odevzdání/4. iterace/Testování/Testovací scénář - správa účtů.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="52">
   <si>
     <t>Název:</t>
   </si>
@@ -38,9 +39,6 @@
     <t>1.</t>
   </si>
   <si>
-    <t>2.Kliknu na tlačítko "+"</t>
-  </si>
-  <si>
     <t>OK</t>
   </si>
   <si>
@@ -56,18 +54,6 @@
     <t>5.</t>
   </si>
   <si>
-    <t>Zadání špatné ceny</t>
-  </si>
-  <si>
-    <t>Ověření, zda systém správně upozorní uživatele na problém s cenou u jídla</t>
-  </si>
-  <si>
-    <t>1.Zadám cenu, která nebude číslo (řetězec jiných znaků) u vybraného jídla</t>
-  </si>
-  <si>
-    <t>1.Systém mě upozorní na nepřevedení ceny jako řetězce na číslo</t>
-  </si>
-  <si>
     <t>Vytvoření nového účtu</t>
   </si>
   <si>
@@ -77,15 +63,9 @@
     <t>1.V menu kliknu na tlačítko s obrázkem číšníka</t>
   </si>
   <si>
-    <t>2.Dvojklikem vyberu určitý stůl</t>
-  </si>
-  <si>
     <t>3.Kliknu na "+"</t>
   </si>
   <si>
-    <t>4.Zadám název účtu</t>
-  </si>
-  <si>
     <t>5.Kliknu na "+"</t>
   </si>
   <si>
@@ -104,21 +84,12 @@
     <t>Ověření, zda lze přidat na účet jídlo</t>
   </si>
   <si>
-    <t>1.Vytvořím si účet u stolu</t>
-  </si>
-  <si>
     <t>2.Označením a kliknutím na "lupu" nebo dvojklikem ho otevřu</t>
   </si>
   <si>
-    <t>4.Vyberu jídlo</t>
-  </si>
-  <si>
     <t>1.Uložení jídla na účet</t>
   </si>
   <si>
-    <t>2.Navýšení celkové ceny</t>
-  </si>
-  <si>
     <t>Odebrání jídel z účtu</t>
   </si>
   <si>
@@ -128,12 +99,6 @@
     <t>1.Vytvořím účet</t>
   </si>
   <si>
-    <t>2.Přidám jídlo</t>
-  </si>
-  <si>
-    <t>3.Kliknutím na jídlo ho vyberu</t>
-  </si>
-  <si>
     <t>4.Kliknutím na "-" jídlo vymažu</t>
   </si>
   <si>
@@ -146,16 +111,70 @@
     <t>Ověření, zda lze vymazat ze stolu účet</t>
   </si>
   <si>
-    <t>2.Vyberu stůl s příslušným účtem</t>
-  </si>
-  <si>
-    <t>3.Kliknutím označím účet</t>
-  </si>
-  <si>
     <t>4.Kliknutím na "-" účet smažu</t>
   </si>
   <si>
     <t>1.Smazání účtu ze stolu</t>
+  </si>
+  <si>
+    <t>2.Dvojklikem vyberu stůl č.1</t>
+  </si>
+  <si>
+    <t>4.Zadám název účtu - Pán s deštníkem</t>
+  </si>
+  <si>
+    <t>1.Vytvořím si účet u stolu - viz předchozí test</t>
+  </si>
+  <si>
+    <t>4.Vyberu jídlo - Bobika</t>
+  </si>
+  <si>
+    <t>Vyhledávání jídel</t>
+  </si>
+  <si>
+    <t>Ověření, zda systém správně vyhledá jídla podle prvního písmene</t>
+  </si>
+  <si>
+    <t>1.Systém zobrazí všechny jídla, která začínají na B (Bobika)</t>
+  </si>
+  <si>
+    <t>Ověření, zda systém správně vyhledá jídla podle části jména</t>
+  </si>
+  <si>
+    <t>2.Do kolonky napíšu písmeno B</t>
+  </si>
+  <si>
+    <t>2. Do kolonky napíšu řetězec "ga"</t>
+  </si>
+  <si>
+    <t>1. Systém zobrazí všechny jídla, obsahují "ga" (Polévka Gaspačo, Steak gigantura)</t>
+  </si>
+  <si>
+    <t>2.Navýšení celkové ceny na 75,-</t>
+  </si>
+  <si>
+    <t>3.Kliknutím na jídlo "Bobika" ho vyberu</t>
+  </si>
+  <si>
+    <t>2.Snížení celkové ceny na 0,-</t>
+  </si>
+  <si>
+    <t>2.Přidám jídlo na účet (viz předchozí test)</t>
+  </si>
+  <si>
+    <t>2.Vyberu stůl č.1</t>
+  </si>
+  <si>
+    <t>3.Vyberu účet "Pán s deštníkem"</t>
+  </si>
+  <si>
+    <t>Podmínky:</t>
+  </si>
+  <si>
+    <t>1. Zobrazim nabídku jídel pro přidání na učet (viz předchozí testy)</t>
+  </si>
+  <si>
+    <t>1.Neprázdné menu s jídly</t>
   </si>
 </sst>
 </file>
@@ -503,7 +522,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -534,7 +553,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -542,27 +561,27 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -570,15 +589,15 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -586,7 +605,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -600,7 +619,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,7 +630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -619,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -627,7 +646,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -635,27 +654,27 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -663,12 +682,12 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -676,7 +695,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -690,7 +709,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,7 +720,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -709,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -717,7 +736,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -725,22 +744,22 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -748,7 +767,12 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -756,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -767,10 +791,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,7 +805,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -789,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -797,7 +821,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -805,22 +829,22 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -828,15 +852,15 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="B13" t="s">
-        <v>7</v>
+      <c r="B12" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -847,10 +871,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B14"/>
+  <dimension ref="A2:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,7 +885,7 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -869,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -877,20 +901,28 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>6</v>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -898,15 +930,93 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>4</v>
       </c>
-      <c r="B14" t="s">
-        <v>7</v>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="74" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
